--- a/data/Fig R4 Data_SB_AMP_THD_2022_01_2831.xlsx
+++ b/data/Fig R4 Data_SB_AMP_THD_2022_01_2831.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC361058-FB3D-414E-8ED3-D06EDF966B52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plots" sheetId="5" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6190" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="56">
   <si>
     <t>UPV SWEEP TRACE FILE</t>
   </si>
@@ -207,12 +208,6 @@
     <t>R&amp;S UPP400 Serial no: 140002, 2022-31-1, 20:40:38</t>
   </si>
   <si>
-    <t>like this -&gt;</t>
-  </si>
-  <si>
-    <t>2 axis with %</t>
-  </si>
-  <si>
     <t>R&amp;S UPP400 Serial no: 140002, 2022-4-2, 16:46:35</t>
   </si>
   <si>
@@ -222,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +312,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6265,7 +6259,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6297,7 +6290,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6305,3794 +6297,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SB+AMP </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>THD</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>CHR_-10dBFS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-10dBFS'!$A$17:$A$69</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="53"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.467869694219999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.051120943840004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.916344231159997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.255011558769993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.2871926885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.26582642850001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.4816298678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.26874084240001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175.0112031447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.15042034699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231.1937229088</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>265.72421484490002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>305.4120910661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>351.02764504850001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>403.4562192944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.71538875469997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532.97471072320002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>612.57842452320006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704.07154155980004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809.22983211539997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>930.09429089369996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1069.010750248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1228.67540994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1412.1871670989999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1623.107762053</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1865.5309073870001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2144.1617419260001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2464.4081517660002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2832.4857307819998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3255.538417747</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3741.7771515119998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4300.6392353580004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4942.9715035890003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5681.2408454099996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529.7761721099996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7505.0465238249999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8625.9807136060008</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9914.3347126869994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11395.11390747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13097.058423709999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15053.20093743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17301.50779906</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19885.6159142</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22855.67968293</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>26269.34443583</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30192.865259819999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34702.392928929999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39885.451898359999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45842.639047800003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52689.576144760002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60559.153922619997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69604.111328350002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-10dBFS'!$B$17:$B$69</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="53"/>
-                <c:pt idx="0">
-                  <c:v>-114.46092224740001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-113.6871462734</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-114.04380677170001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-113.1785412575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-114.5941525323</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-115.59094854919999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-113.4810366123</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-113.5184883157</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-113.9034342552</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-113.4316383141</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-113.6816790877</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-114.9187854276</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-113.8906828654</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-113.5679049033</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-113.982757205</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-114.1432914561</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-114.2397212867</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-114.4565865416</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-114.18439963260001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-114.2194928808</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-113.1045493498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-113.4172680694</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-113.9694214766</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-113.1808026006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-108.54589545269999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-108.3452939981</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-107.5656129071</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-107.4765583983</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-107.42141950040001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-105.7609608417</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-108.2107482677</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-105.292001468</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-105.9480634889</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-104.66594440350001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-105.9707533389</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-104.883769457</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-103.7769591584</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-102.71432683010001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-103.626484318</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-102.9737680672</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-101.7536098793</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-100.5926176209</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-101.0052432362</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-98.272979661120004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-96.666230940229994</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-94.138298301899994</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-98.709805280040001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-100.52652643579999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-100.11050495249999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8512-4846-A067-9B19131F235B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>CHR_-10dBFS_4Ohms</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-10dBFS_4Ohms'!$A$17:$A$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.467869694219999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.051120943840004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.916344231159997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.255011558769993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.2871926885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.26582642850001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.4816298678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.26874084240001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175.0112031447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.15042034699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231.1937229088</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>265.72421484490002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>305.4120910661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>351.02764504850001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>403.4562192944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.71538875469997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532.97471072320002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>612.57842452320006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704.07154155980004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809.22983211539997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>930.09429089369996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1069.010750248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1228.67540994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1412.1871670989999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1623.107762053</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1865.5309073870001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2144.1617419260001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2464.4081517660002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2832.4857307819998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3255.538417747</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3741.7771515119998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4300.6392353580004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4942.9715035890003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5681.2408454099996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529.7761721099996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7505.0465238249999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8625.9807136060008</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9914.3347126869994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11395.11390747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13097.058423709999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15053.20093743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17301.50779906</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19885.6159142</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22855.67968293</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>26269.34443583</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30192.865259819999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34702.392928929999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39885.451898359999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45842.639047800003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52689.576144760002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60559.153922619997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69604.111328350002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-10dBFS_4Ohms'!$B$17:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>-115.9646760893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-113.63531370770001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-113.50504733290001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-112.05450457729999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-113.7442744737</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-115.4580310746</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-113.8994636509</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-114.5524683415</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-113.68426432779999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-113.4071112351</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-113.6519438248</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-113.9200218168</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-113.1788165918</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-113.07182516589999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-112.9352093439</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-113.234811763</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-113.5002322855</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-112.4722789045</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-112.4617619615</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-112.97917612729999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-111.44113674579999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-111.6139315054</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-111.4845448247</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-111.31304586509999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-110.3548743476</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-104.8262323662</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-106.7571851284</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-105.78172922820001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-104.8768851414</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-106.2554216404</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-103.74115071</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-103.0955952164</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-103.614820683</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-101.3351164284</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-101.32353489010001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-101.33698244279999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-99.647820166830002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-98.312434095819995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-98.140175194289995</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-96.386650549099997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-96.324886935669994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-94.830877324810004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-92.713614362000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-91.32117846733</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-90.216276046160004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-88.625991733769993</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-89.302032002499999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-90.051655301490001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-90.395862193870002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8512-4846-A067-9B19131F235B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>CHR_-10dBFS_8Ohms</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-10dBFS_8Ohms'!$A$17:$A$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.467869694219999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.051120943840004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.916344231159997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.255011558769993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.2871926885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.26582642850001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.4816298678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.26874084240001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175.0112031447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.15042034699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231.1937229088</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>265.72421484490002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>305.4120910661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>351.02764504850001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>403.4562192944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.71538875469997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532.97471072320002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>612.57842452320006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704.07154155980004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809.22983211539997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>930.09429089369996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1069.010750248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1228.67540994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1412.1871670989999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1623.107762053</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1865.5309073870001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2144.1617419260001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2464.4081517660002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2832.4857307819998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3255.538417747</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3741.7771515119998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4300.6392353580004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4942.9715035890003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5681.2408454099996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529.7761721099996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7505.0465238249999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8625.9807136060008</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9914.3347126869994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11395.11390747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13097.058423709999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15053.20093743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17301.50779906</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19885.6159142</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22855.67968293</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>26269.34443583</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30192.865259819999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34702.392928929999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39885.451898359999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45842.639047800003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52689.576144760002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60559.153922619997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69604.111328350002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-10dBFS_8Ohms'!$B$17:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>-115.88790983040001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-114.9734491759</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-114.3160002116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-113.5815228936</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-114.7174653208</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-115.0388068627</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-114.527168643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-114.82428378269999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-115.4443573879</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-115.89616546880001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-115.9052806756</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-115.1812072539</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-115.1948505571</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-114.98264874349999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-115.1325829053</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-115.52176534199999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-114.8790465268</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-115.92417067460001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-115.4535203283</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-115.038425958</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-114.1267160637</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-113.9998284739</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-114.044173755</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-113.331564286</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-113.4018320516</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-105.7575968405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-107.5384057917</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-106.083234253</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-107.7890801539</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-106.1767316855</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-106.2739339135</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-104.6815686026</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-105.89109107279999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-105.7353162528</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-104.5433148348</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-104.0960844505</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-102.7933109785</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-102.2617010332</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-101.3020553895</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-101.211143565</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-101.1563397212</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-99.648439751820007</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-97.605200916070004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-95.486218967699998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-94.785296639630005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-92.678095123549994</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-93.652573689229996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-95.158377135959995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-95.297720647099993</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8512-4846-A067-9B19131F235B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>CHR_-20dBFS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-20dBFS'!$A$17:$A$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.467869694219999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.051120943840004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.916344231159997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.255011558769993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.2871926885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.26582642850001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.4816298678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.26874084240001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175.0112031447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.15042034699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231.1937229088</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>265.72421484490002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>305.4120910661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>351.02764504850001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>403.4562192944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.71538875469997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532.97471072320002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>612.57842452320006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704.07154155980004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809.22983211539997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>930.09429089369996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1069.010750248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1228.67540994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1412.1871670989999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1623.107762053</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1865.5309073870001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2144.1617419260001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2464.4081517660002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2832.4857307819998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3255.538417747</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3741.7771515119998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4300.6392353580004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4942.9715035890003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5681.2408454099996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529.7761721099996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7505.0465238249999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8625.9807136060008</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9914.3347126869994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11395.11390747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13097.058423709999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15053.20093743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17301.50779906</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19885.6159142</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22855.67968293</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>26269.34443583</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30192.865259819999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34702.392928929999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39885.451898359999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45842.639047800003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52689.576144760002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60559.153922619997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69604.111328350002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-20dBFS'!$B$17:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>-99.531780280259994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-98.601254841889997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-98.746483235140005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-98.139364355230001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-98.410150907520006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-98.666883633599994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-98.360818697159999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-98.010140708009999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-98.228580504589999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-98.474424772009996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-98.473081752810003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-98.545645836320006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-98.557615511880002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-98.398470202799999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-98.878183746730002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-98.821079124329998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-98.625113598230001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-98.414665453240005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-98.907246588280003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-98.486673307550006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-98.600310386359993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-98.341091906520006</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-98.510335509490005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-98.952638672030005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-98.660465141969993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-96.236552986009997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-96.388361785979995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-96.183116899660007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-97.022991090640005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-95.691775459460004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-95.644289261949993</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-95.283822722820005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-95.684426276430003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-94.215902708719995</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-94.576382538640004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-95.359187687870005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-93.299654585230002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-92.740802405249994</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-94.031076242739999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-94.775881275870006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-95.305790139609996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-96.99021575207</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-95.958489574300003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-95.062305376739999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-101.67403174109999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-99.521689673219996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-101.4340992322</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-101.1599665384</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-98.554337212909999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-941E-4BA8-80BA-9F4CC7A685E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>CHR_-20dBFS_4Ohms</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-20dBFS_4Ohms'!$D$17:$D$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.467869694219999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.051120943840004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.916344231159997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.255011558769993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.2871926885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.26582642850001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.4816298678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.26874084240001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175.0112031447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.15042034699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231.1937229088</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>265.72421484490002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>305.4120910661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>351.02764504850001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>403.4562192944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.71538875469997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532.97471072320002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>612.57842452320006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704.07154155980004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809.22983211539997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>930.09429089369996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1069.010750248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1228.67540994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1412.1871670989999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1623.107762053</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1865.5309073870001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2144.1617419260001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2464.4081517660002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2832.4857307819998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3255.538417747</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3741.7771515119998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4300.6392353580004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4942.9715035890003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5681.2408454099996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529.7761721099996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7505.0465238249999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8625.9807136060008</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9914.3347126869994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11395.11390747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13097.058423709999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15053.20093743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17301.50779906</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19885.6159142</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22855.67968293</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>26269.34443583</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30192.865259819999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34702.392928929999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39885.451898359999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45842.639047800003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52689.576144760002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60559.153922619997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69604.111328350002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-20dBFS_4Ohms'!$E$17:$E$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>-96.877802576950003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-98.978261914130002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-98.500839212619994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-98.260302578340003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-98.536547246970002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-98.467616470720003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-98.292003651320002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-98.425823600550004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-98.889684523290001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-98.930676161459999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-98.632790339440007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-98.705420591220005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-98.810452464579996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-98.907544982260006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-98.705415087950001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-98.713765285470004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-98.650853834360007</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-98.503279414879998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-98.506524300859994</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-98.356488179440007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-98.966785993139993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-98.477904854619993</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-98.647025348409997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-98.459222970390002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-98.700497626480001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-95.511217776609996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-96.850184585400001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-95.860399111410004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-96.260604550660005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-95.742697968580003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-95.385045785510002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-95.068608450810004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-96.653274175779998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-95.557005044690001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-93.732293007639996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-93.909372889980006</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-94.906649324699998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-94.364216856029998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-93.856980197390001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-94.320002956609997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-94.06135875839</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-94.024767302070003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-93.265265977050007</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-95.882996662859995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-94.929848052560004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-92.673768014559997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-94.457159095679998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-94.024222815450003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-95.212662129489999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-941E-4BA8-80BA-9F4CC7A685E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>CHR_-20dBFS_8Ohms</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-20dBFS_8Ohms'!$A$17:$A$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.467869694219999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.051120943840004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.916344231159997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.255011558769993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.2871926885</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>115.26582642850001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132.4816298678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.26874084240001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175.0112031447</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.15042034699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>231.1937229088</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>265.72421484490002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>305.4120910661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>351.02764504850001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>403.4562192944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.71538875469997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>532.97471072320002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>612.57842452320006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>704.07154155980004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>809.22983211539997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>930.09429089369996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1069.010750248</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1228.67540994</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1412.1871670989999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1623.107762053</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1865.5309073870001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2144.1617419260001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2464.4081517660002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2832.4857307819998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3255.538417747</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3741.7771515119998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4300.6392353580004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4942.9715035890003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5681.2408454099996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529.7761721099996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7505.0465238249999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8625.9807136060008</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9914.3347126869994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11395.11390747</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13097.058423709999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15053.20093743</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17301.50779906</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19885.6159142</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22855.67968293</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>26269.34443583</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30192.865259819999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34702.392928929999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39885.451898359999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45842.639047800003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52689.576144760002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60559.153922619997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>69604.111328350002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>80000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SB_AMP_THD_CHR_-20dBFS_8Ohms'!$B$17:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>-100.0329950493</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-99.429562741599995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-99.441876726550007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-99.062934950089996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-99.817883169279995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-100.0924251678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-100.06358116769999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-99.656222736049997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-99.601816629270004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-99.865499469469995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-100.0750690827</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-99.655672929570002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-99.604157546569994</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-99.499740513950002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-99.998266950729999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-100.1149304816</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-100.0012108696</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-99.767520172239998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-100.22095129500001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-99.537412998289994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-100.0507905069</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-99.821704159769993</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-100.0091359226</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-99.836827099090002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-100.13963937939999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-95.987924773800003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-96.842895635770006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-96.445483141989996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-97.207699294730006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-96.582236470439994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-95.713624902069995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-95.488652030300003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-94.937973638749995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-97.179432352890004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-94.676411245470007</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-94.511898223759999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-95.704224421169997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-94.206001231309997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-94.141783986660002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-93.354968634450003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-95.264903676130004</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-96.322194949269999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-100.2095522426</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-96.797451546100007</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-98.201988785520001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-99.609727288269994</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-97.509036324830006</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-99.667345992669993</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-98.217780653160005</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.402823466385E+38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-941E-4BA8-80BA-9F4CC7A685E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="830068143"/>
-        <c:axId val="835551631"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:v>CHR_0dBFS</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>SB_AMP_THD_CHR_0dBFS!$A$17:$A$70</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="54"/>
-                      <c:pt idx="0">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>57.467869694219999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>66.051120943840004</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>75.916344231159997</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>87.255011558769993</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>100.2871926885</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>115.26582642850001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>132.4816298678</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>152.26874084240001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>175.0112031447</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>201.15042034699999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>231.1937229088</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>265.72421484490002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>305.4120910661</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>351.02764504850001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>403.4562192944</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>463.71538875469997</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>532.97471072320002</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>612.57842452320006</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>704.07154155980004</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>809.22983211539997</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>930.09429089369996</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1069.010750248</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1228.67540994</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1412.1871670989999</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1623.107762053</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1865.5309073870001</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2144.1617419260001</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2464.4081517660002</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2832.4857307819998</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3255.538417747</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3741.7771515119998</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4300.6392353580004</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>4942.9715035890003</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>5681.2408454099996</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>6529.7761721099996</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7505.0465238249999</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>8625.9807136060008</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>9914.3347126869994</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>11395.11390747</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>13097.058423709999</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>15053.20093743</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>17301.50779906</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>19885.6159142</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>22855.67968293</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>26269.34443583</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>30192.865259819999</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>34702.392928929999</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>39885.451898359999</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>45842.639047800003</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>52689.576144760002</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>60559.153922619997</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>69604.111328350002</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>80000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>SB_AMP_THD_CHR_0dBFS!$B$17:$B$70</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="54"/>
-                      <c:pt idx="0">
-                        <c:v>-110.059828803</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-110.43990657240001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-112.1118224782</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-111.8657828517</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-111.80909022420001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-112.2208681617</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-111.8024459854</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-111.3854637702</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-111.6343834373</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-111.6979131643</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-111.20742991269999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-111.6811973376</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-111.5368682336</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-111.8309261088</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-111.9859707496</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-111.7180642829</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>-111.8665005869</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-111.93676747320001</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>-112.11830307850001</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-111.9344461626</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>-111.63287594499999</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>-111.8176758849</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>-111.8912653137</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>-111.9509575191</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>-111.9700694718</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>-111.6624411131</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>-111.3827327277</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>-111.5594839795</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>-111.7158486185</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-111.74507229140001</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>-111.59747818859999</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-111.290240991</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>-110.6589856292</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-110.34109962220001</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-109.05900168319999</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-106.8237596549</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>-104.2885999316</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-101.2827115395</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>-97.457527850589997</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-94.13679431672</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-90.574189886420001</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-87.213143005060004</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-83.427030092980004</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>-79.755857551709994</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>-76.190310034619998</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-72.464761193450002</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>-96.522271805610004</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>-94.787653317519997</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>-89.667143408900003</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5C8C-40EA-9193-0E99DBFA4FFE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>CHR_0dBFS_4Ohms</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>SB_AMP_THD_CHR_0dBFS_4Ohms!$A$17:$A$70</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="54"/>
-                      <c:pt idx="0">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>57.467869694219999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>66.051120943840004</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>75.916344231159997</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>87.255011558769993</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>100.2871926885</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>115.26582642850001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>132.4816298678</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>152.26874084240001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>175.0112031447</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>201.15042034699999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>231.1937229088</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>265.72421484490002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>305.4120910661</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>351.02764504850001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>403.4562192944</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>463.71538875469997</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>532.97471072320002</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>612.57842452320006</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>704.07154155980004</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>809.22983211539997</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>930.09429089369996</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1069.010750248</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1228.67540994</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1412.1871670989999</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1623.107762053</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1865.5309073870001</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2144.1617419260001</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2464.4081517660002</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2832.4857307819998</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3255.538417747</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3741.7771515119998</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4300.6392353580004</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>4942.9715035890003</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>5681.2408454099996</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>6529.7761721099996</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7505.0465238249999</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>8625.9807136060008</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>9914.3347126869994</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>11395.11390747</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>13097.058423709999</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>15053.20093743</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>17301.50779906</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>19885.6159142</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>22855.67968293</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>26269.34443583</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>30192.865259819999</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>34702.392928929999</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>39885.451898359999</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>45842.639047800003</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>52689.576144760002</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>60559.153922619997</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>69604.111328350002</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>80000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>SB_AMP_THD_CHR_0dBFS_4Ohms!$B$17:$B$70</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="54"/>
-                      <c:pt idx="0">
-                        <c:v>-111.4806129368</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-111.9335282079</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-112.3755285031</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-111.9343468102</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-112.043028666</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-112.8485939824</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-111.7576460356</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-111.8465111843</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-111.7655591198</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-111.77176175789999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-111.4236431113</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-111.6572884882</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-111.60567519369999</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-111.4367169211</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-111.4126070721</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-111.2728062374</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>-111.06501456700001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-111.0101314506</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>-110.4617528319</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-110.2374164161</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>-109.7272583309</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>-109.37295927620001</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>-108.90876277700001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>-108.56818222530001</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>-108.3275637558</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>-107.88166332350001</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>-107.37593527830001</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>-107.0399987875</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>-106.71164480580001</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-106.0299275024</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>-104.9535922255</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-103.97664193510001</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>-102.9900613431</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-101.78890627529999</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-100.4532185755</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-98.521968707439996</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>-96.821444510980001</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-94.876116839969995</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>-92.680869423100006</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-90.193097187440003</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-87.730363237990005</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-85.25193033811</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-81.80356342092</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>-78.568724235079998</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>-75.241409871569999</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-71.797981312109997</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>-87.901546306089998</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>-87.946204959119996</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>-87.567068828000004</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-5C8C-40EA-9193-0E99DBFA4FFE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>CHR_0dBFS_8Ohms</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>SB_AMP_THD_CHR_0dBFS_8Ohms!$A$17:$A$70</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="54"/>
-                      <c:pt idx="0">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>57.467869694219999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>66.051120943840004</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>75.916344231159997</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>87.255011558769993</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>100.2871926885</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>115.26582642850001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>132.4816298678</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>152.26874084240001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>175.0112031447</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>201.15042034699999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>231.1937229088</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>265.72421484490002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>305.4120910661</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>351.02764504850001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>403.4562192944</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>463.71538875469997</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>532.97471072320002</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>612.57842452320006</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>704.07154155980004</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>809.22983211539997</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>930.09429089369996</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1069.010750248</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1228.67540994</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1412.1871670989999</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1623.107762053</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1865.5309073870001</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>2144.1617419260001</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2464.4081517660002</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2832.4857307819998</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3255.538417747</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>3741.7771515119998</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4300.6392353580004</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>4942.9715035890003</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>5681.2408454099996</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>6529.7761721099996</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7505.0465238249999</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>8625.9807136060008</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>9914.3347126869994</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>11395.11390747</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>13097.058423709999</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>15053.20093743</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>17301.50779906</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>19885.6159142</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>22855.67968293</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>26269.34443583</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>30192.865259819999</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>34702.392928929999</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>39885.451898359999</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>45842.639047800003</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>52689.576144760002</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>60559.153922619997</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>69604.111328350002</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>80000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>SB_AMP_THD_CHR_0dBFS_8Ohms!$B$17:$B$70</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="54"/>
-                      <c:pt idx="0">
-                        <c:v>-108.7629735327</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-110.5967833131</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-112.0456566073</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-111.609513784</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-111.8535502134</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-111.80261870450001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-111.4156159754</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-111.4471895189</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-111.293394683</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-111.5139328719</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-111.4557350453</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-111.70694848780001</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-111.9841911762</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-111.5890230215</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-111.99110530919999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-112.0396944315</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>-112.0357837103</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-112.01745579209999</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>-111.8623319054</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-112.3175034912</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>-111.9928127174</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>-112.1833209715</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>-111.8435504576</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>-111.8886964766</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>-111.5917604614</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>-111.6815667887</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>-111.09717481929999</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>-110.952010323</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>-110.56902036229999</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-109.90497271930001</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>-109.14497235100001</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-108.4072395841</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>-106.9687289606</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-105.9778132332</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-104.45291249979999</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-102.4608936093</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>-100.35058660830001</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-97.907227845319994</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>-95.344144974629998</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-92.411958031319998</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-89.164324938690001</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-86.098008377759996</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-82.744615758359998</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>-79.089190297749994</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>-75.676398092209993</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-72.180814188669999</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>-91.048986199970003</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>-89.114842066890006</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>-91.785033071640001</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>3.402823466385E+38</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-5C8C-40EA-9193-0E99DBFA4FFE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="830068143"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="80000"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="835551631"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="835551631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0"/>
-          <c:min val="-120"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="830068143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10128,46 +6333,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10723,543 +6888,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>3313</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814FC07E-C2E5-49AA-B805-1B2F0C07FCD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11277,131 +6926,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814FC07E-C2E5-49AA-B805-1B2F0C07FCD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6429375" y="914400"/>
-          <a:ext cx="6229350" cy="3371850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>106556</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180748</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14420850" y="4914900"/>
-          <a:ext cx="3973706" cy="2885848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11669,38 +7193,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="W38:W39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -13617,12 +9128,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15539,12 +11048,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17461,12 +12968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -19383,12 +14888,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -21305,12 +16808,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -23227,12 +18728,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -25149,12 +20648,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -27071,12 +22568,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -28993,12 +24488,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -30915,12 +26408,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32837,12 +28328,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -34759,12 +30248,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -34780,7 +30267,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -36681,12 +32168,10 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -38603,12 +34088,10 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -40525,12 +36008,10 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -42447,12 +37928,10 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -42468,7 +37947,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -44369,12 +39848,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -46291,7 +41768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -48213,12 +43690,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -50103,12 +45578,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -52025,12 +47498,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -53947,12 +49418,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:K70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -55869,11 +51338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N70"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
